--- a/~Library/~NPOI/Dawnx.NPOI.Test/test.xlsx
+++ b/~Library/~NPOI/Dawnx.NPOI.Test/test.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProjects\zmland.com\OpenSources\Dawnx\^Dawnx.Library\^NPOI\Dawnx.NPOI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProjects\Dawnx\~Library\~NPOI\Dawnx.NPOI.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dawnx" sheetId="1" r:id="rId1"/>
+    <sheet name="Legend" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>Suplier</t>
   </si>
@@ -48,6 +49,206 @@
   <si>
     <t>Suplier</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>J5</t>
   </si>
 </sst>
 </file>
@@ -70,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="63">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,6 +281,366 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,7 +659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -110,6 +671,189 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -396,7 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17:H18"/>
     </sheetView>
   </sheetViews>
@@ -635,10 +1379,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="65"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -648,4 +1392,221 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="5.875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/~Library/~NPOI/Dawnx.NPOI.Test/test.xlsx
+++ b/~Library/~NPOI/Dawnx.NPOI.Test/test.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Dawnx" sheetId="1" r:id="rId1"/>
-    <sheet name="Legend" sheetId="2" r:id="rId2"/>
+    <sheet name="Legend" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
@@ -659,7 +659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,9 +700,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1379,10 +1376,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
+      <c r="A10" s="64"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
+      <c r="A11" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1399,13 +1396,10 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="5.875" style="14"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -1440,173 +1434,173 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="53" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="63" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/~Library/~NPOI/Dawnx.NPOI.Test/test.xlsx
+++ b/~Library/~NPOI/Dawnx.NPOI.Test/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Dawnx" sheetId="1" r:id="rId1"/>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1395,7 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
